--- a/fuentes/contenidos/grado11/guion01/SolicitudGrafica-MA_11_01_CO_REC70.xlsx
+++ b/fuentes/contenidos/grado11/guion01/SolicitudGrafica-MA_11_01_CO_REC70.xlsx
@@ -537,16 +537,16 @@
     <t>Niños jugando en orden de estatura</t>
   </si>
   <si>
-    <t>Eliminar el código</t>
-  </si>
-  <si>
     <t>Ver observaciones</t>
   </si>
   <si>
-    <t>Tres rectas numéricas indicando las relaciones "mayor que", "menor que" e "igual que"</t>
-  </si>
-  <si>
-    <t>Comparacion de segmentos</t>
+    <t>Deben ser letras minusculas</t>
+  </si>
+  <si>
+    <t>la imagen no es la solicitada, esta debe describir la propiedad arquimediana,  el tercer segmento indica que  cuatro veces el segmento y supera al  segmento x</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -698,7 +698,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -742,6 +742,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,7 +1264,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1438,6 +1444,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2468,9 +2478,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2508,14 +2518,14 @@
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="78"/>
-      <c r="F2" s="70" t="s">
+      <c r="D2" s="80"/>
+      <c r="F2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="71"/>
+      <c r="G2" s="73"/>
       <c r="H2" s="42"/>
       <c r="I2" s="42"/>
       <c r="J2" s="16"/>
@@ -2525,12 +2535,12 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="79">
+      <c r="C3" s="81">
         <v>11</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="73"/>
+      <c r="D3" s="82"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="75"/>
       <c r="H3" s="42"/>
       <c r="I3" s="42"/>
       <c r="J3" s="16"/>
@@ -2540,10 +2550,10 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="80"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="5"/>
       <c r="F4" s="41" t="s">
         <v>55</v>
@@ -2561,10 +2571,10 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="82"/>
+      <c r="D5" s="84"/>
       <c r="E5" s="5"/>
       <c r="F5" s="39" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2615,12 +2625,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="74" t="s">
+      <c r="F8" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="76"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="78"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2701,7 +2711,7 @@
         <v>153</v>
       </c>
       <c r="K10" s="66" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="12" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2709,7 +2719,7 @@
         <v>147</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" s="22" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -2732,8 +2742,8 @@
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="67"/>
-      <c r="K11" s="66" t="s">
-        <v>156</v>
+      <c r="K11" s="70" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2741,7 +2751,7 @@
         <v>152</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="22" t="str">
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -2764,8 +2774,8 @@
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="67"/>
-      <c r="K12" s="66" t="s">
-        <v>157</v>
+      <c r="K12" s="71" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4248,25 +4258,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="33"/>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92"/>
       <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -4274,11 +4284,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="33"/>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="98"/>
       <c r="F3" s="34"/>
       <c r="H3" s="24" t="s">
         <v>18</v>
@@ -4329,11 +4339,11 @@
       <c r="C5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="97" t="str">
+      <c r="D5" s="99" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>MA_11_01_CO</v>
       </c>
-      <c r="E5" s="98"/>
+      <c r="E5" s="100"/>
       <c r="F5" s="34"/>
       <c r="H5" s="24" t="s">
         <v>22</v>
@@ -4378,12 +4388,12 @@
       <c r="C7" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="83" t="str">
+      <c r="D7" s="85" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_MA_11_01_CO.xls</v>
       </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="84"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="86"/>
       <c r="H7" s="24" t="s">
         <v>24</v>
       </c>
@@ -4477,14 +4487,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="87"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="89"/>
       <c r="I13" s="24" t="s">
         <v>33</v>
       </c>
@@ -4517,12 +4527,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="33"/>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="90"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="92"/>
       <c r="J15" s="24">
         <v>12</v>
       </c>
@@ -4562,12 +4572,12 @@
       <c r="C17" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="91" t="str">
+      <c r="D17" s="93" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>MA_11_01_REC10</v>
       </c>
-      <c r="E17" s="92"/>
-      <c r="F17" s="93"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="95"/>
       <c r="J17" s="24">
         <v>14</v>
       </c>
@@ -4583,12 +4593,12 @@
       <c r="C18" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="83" t="str">
+      <c r="D18" s="85" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_MA_11_01_REC10.xls</v>
       </c>
-      <c r="E18" s="83"/>
-      <c r="F18" s="84"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="86"/>
       <c r="J18" s="24">
         <v>15</v>
       </c>
@@ -4980,41 +4990,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
       <c r="H2" s="43" t="s">
         <v>65</v>
       </c>
